--- a/belfahrs-magic-school/checklist.xlsx
+++ b/belfahrs-magic-school/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/belfahrs-magic-school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD9227E-2EEC-9041-AD2C-98A68144D8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5087D93-23CE-234F-9D09-5E52668E3F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{C84BDD7B-F776-CA48-8183-57EBADB5EB12}"/>
   </bookViews>
@@ -59,13 +59,13 @@
     <t>belfahrs_magic_school.jpg</t>
   </si>
   <si>
-    <t>Kadokawa</t>
-  </si>
-  <si>
     <t>Belfahr's Magic School</t>
   </si>
   <si>
     <t>ベルファール魔法学園</t>
+  </si>
+  <si>
+    <t>Kadokawa Shoten</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,13 +459,13 @@
         <v>1994</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
